--- a/Etc/Dodge3_사용자스토리.xlsx
+++ b/Etc/Dodge3_사용자스토리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Unity3D\zSchool\07\4Week\Dodge3Group\trunk\Etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B09D3F-D99A-4364-AC23-08051D36D8E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC10E9A-7251-4F86-B016-890E979FE90E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{1D324C65-7F59-4C97-A67F-12C9050D48BF}"/>
+    <workbookView xWindow="30990" yWindow="435" windowWidth="25305" windowHeight="14640" activeTab="1" xr2:uid="{1D324C65-7F59-4C97-A67F-12C9050D48BF}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자스토리" sheetId="1" r:id="rId1"/>
@@ -245,9 +245,6 @@
     <t>csv 파서 제작 - StreamReader</t>
   </si>
   <si>
-    <t>AssetMgr 만들기</t>
-  </si>
-  <si>
     <t>엑셀테이블 데이타 만들기</t>
   </si>
   <si>
@@ -420,6 +417,9 @@
       <t>만들기</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssetMgr 클래스 만들기</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -559,6 +559,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1160,7 +1163,7 @@
   <dimension ref="B3:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1206,8 +1209,8 @@
       <c r="B6" s="7">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>36</v>
+      <c r="C6" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="D6" s="8">
         <v>1</v>
@@ -1218,7 +1221,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="8">
         <v>0.5</v>
@@ -1229,7 +1232,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="8">
         <v>0.5</v>
@@ -1240,7 +1243,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="8">
         <v>1</v>
@@ -1251,7 +1254,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
@@ -1262,7 +1265,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
@@ -1273,7 +1276,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
@@ -1284,7 +1287,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="8">
         <v>0.5</v>
@@ -1295,7 +1298,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8">
         <v>0.5</v>
@@ -1306,7 +1309,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
@@ -1317,7 +1320,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8">
         <v>0.5</v>
@@ -1328,7 +1331,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="8">
         <v>0.5</v>
@@ -1339,7 +1342,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="8">
         <v>0.5</v>
@@ -1350,7 +1353,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="8">
         <v>0.5</v>
@@ -1361,7 +1364,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="8">
         <v>0.5</v>
@@ -1372,7 +1375,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="8">
         <v>1</v>
@@ -1383,7 +1386,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" s="8">
         <v>0.5</v>
@@ -1394,7 +1397,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="8">
         <v>0.5</v>
@@ -1405,7 +1408,7 @@
         <v>21</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24" s="8">
         <v>0.5</v>
@@ -1416,7 +1419,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" s="8">
         <v>0.5</v>
@@ -1427,7 +1430,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" s="8">
         <v>0.5</v>
@@ -1438,7 +1441,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="8">
         <v>0.5</v>
@@ -1449,7 +1452,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" s="8">
         <v>0.5</v>
@@ -1478,9 +1481,10 @@
     <row r="33" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D33" s="8">
+        <f>SUM(D4:D32)</f>
         <v>16.5</v>
       </c>
     </row>
